--- a/hainan_covid19.xlsx
+++ b/hainan_covid19.xlsx
@@ -47,6 +47,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,10 +144,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D8"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,7 +222,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,7 +236,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -264,6 +265,20 @@
       </c>
       <c r="D8" s="0" t="n">
         <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/hainan_covid19.xlsx
+++ b/hainan_covid19.xlsx
@@ -144,10 +144,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,6 +279,48 @@
       </c>
       <c r="D9" s="0" t="n">
         <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>559</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>805</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>595</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>614</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/hainan_covid19.xlsx
+++ b/hainan_covid19.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,13 +25,13 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">hncon</t>
+    <t xml:space="preserve">con</t>
   </si>
   <si>
-    <t xml:space="preserve">hnasy</t>
+    <t xml:space="preserve">asy</t>
   </si>
   <si>
-    <t xml:space="preserve">hnasytocon</t>
+    <t xml:space="preserve">asytocon</t>
   </si>
 </sst>
 </file>
@@ -144,18 +144,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -169,7 +169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>44774</v>
       </c>
@@ -183,7 +183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>44775</v>
       </c>
@@ -197,7 +197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>44776</v>
       </c>
@@ -211,7 +211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>44777</v>
       </c>
@@ -225,7 +225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>44778</v>
       </c>
@@ -239,7 +239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>44779</v>
       </c>
@@ -253,7 +253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>44780</v>
       </c>
@@ -267,7 +267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>44781</v>
       </c>
@@ -281,7 +281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>44782</v>
       </c>
@@ -295,7 +295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>44783</v>
       </c>
@@ -309,7 +309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>44784</v>
       </c>
@@ -321,6 +321,300 @@
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>594</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>832</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>44786</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>494</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>846</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>582</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>785</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>482</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>496</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1522</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>441</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>469</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>44793</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>625</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>535</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>44800</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
